--- a/FACompareReport.xlsx
+++ b/FACompareReport.xlsx
@@ -6717,7 +6717,7 @@
               <color rgb="FF000000"/>
               <rFont val="Arial"/>
             </rPr>
-            <t xml:space="preserve">5/14/2024 10:44:12 AM</t>
+            <t xml:space="preserve">5/14/2024 1:39:48 PM</t>
           </r>
           <r>
             <rPr>
@@ -14246,7 +14246,7 @@
       </c>
       <c s="8" t="inlineStr" r="F124">
         <is>
-          <t xml:space="preserve">PON1117PA, 601-608</t>
+          <t xml:space="preserve">PON1117PA, 609-616</t>
         </is>
       </c>
       <c s="7" r="G124">
@@ -14606,7 +14606,7 @@
       </c>
       <c s="8" t="inlineStr" r="F130">
         <is>
-          <t xml:space="preserve">PON1117PA, 613-620</t>
+          <t xml:space="preserve">PON1117PA, 601-608</t>
         </is>
       </c>
       <c s="7" r="G130">
